--- a/2025 Choose Bull Planned Mating (including our AI Bulls).xlsx
+++ b/2025 Choose Bull Planned Mating (including our AI Bulls).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ranch\Ranch Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arvel\OneDrive\Desktop\Other\EPDs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F65E4C-5A76-4E07-BFBE-C5A74D6ABEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17930" windowHeight="10950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -6417,7 +6418,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6728,38 +6729,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y703"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A679" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6836,7 +6838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -6904,7 +6906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -6972,7 +6974,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -7040,7 +7042,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -7108,7 +7110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -7176,7 +7178,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -7244,7 +7246,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -7312,7 +7314,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -7380,7 +7382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -7448,7 +7450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -7516,7 +7518,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -7584,7 +7586,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -7652,7 +7654,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -7720,7 +7722,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -7788,7 +7790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -7856,7 +7858,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -7924,7 +7926,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -7992,7 +7994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -8060,7 +8062,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -8128,7 +8130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -8196,7 +8198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -8264,7 +8266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -8332,7 +8334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -8400,7 +8402,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -8468,7 +8470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -8536,7 +8538,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -8604,7 +8606,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -8672,7 +8674,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -8740,7 +8742,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -8808,7 +8810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -8876,7 +8878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -8944,7 +8946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -9012,7 +9014,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -9080,7 +9082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -9148,7 +9150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>127</v>
       </c>
@@ -9216,7 +9218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -9284,7 +9286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>133</v>
       </c>
@@ -9352,7 +9354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -9420,7 +9422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -9488,7 +9490,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>142</v>
       </c>
@@ -9556,7 +9558,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>145</v>
       </c>
@@ -9624,7 +9626,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -9692,7 +9694,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>151</v>
       </c>
@@ -9760,7 +9762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>154</v>
       </c>
@@ -9828,7 +9830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>157</v>
       </c>
@@ -9896,7 +9898,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -9964,7 +9966,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>163</v>
       </c>
@@ -10032,7 +10034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>166</v>
       </c>
@@ -10100,7 +10102,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>169</v>
       </c>
@@ -10168,7 +10170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>172</v>
       </c>
@@ -10236,7 +10238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -10304,7 +10306,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>178</v>
       </c>
@@ -10372,7 +10374,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -10440,7 +10442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>184</v>
       </c>
@@ -10508,7 +10510,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>187</v>
       </c>
@@ -10576,7 +10578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>190</v>
       </c>
@@ -10644,7 +10646,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>193</v>
       </c>
@@ -10712,7 +10714,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>196</v>
       </c>
@@ -10780,7 +10782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>199</v>
       </c>
@@ -10848,7 +10850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>202</v>
       </c>
@@ -10916,7 +10918,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>205</v>
       </c>
@@ -10984,7 +10986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>208</v>
       </c>
@@ -11052,7 +11054,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>211</v>
       </c>
@@ -11120,7 +11122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>214</v>
       </c>
@@ -11188,7 +11190,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>217</v>
       </c>
@@ -11256,7 +11258,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>220</v>
       </c>
@@ -11324,7 +11326,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>223</v>
       </c>
@@ -11392,7 +11394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>226</v>
       </c>
@@ -11460,7 +11462,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>229</v>
       </c>
@@ -11528,7 +11530,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>232</v>
       </c>
@@ -11596,7 +11598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>235</v>
       </c>
@@ -11664,7 +11666,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>238</v>
       </c>
@@ -11732,7 +11734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>241</v>
       </c>
@@ -11800,7 +11802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>244</v>
       </c>
@@ -11868,7 +11870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>247</v>
       </c>
@@ -11936,7 +11938,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>250</v>
       </c>
@@ -12004,7 +12006,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>253</v>
       </c>
@@ -12072,7 +12074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>256</v>
       </c>
@@ -12140,7 +12142,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>259</v>
       </c>
@@ -12208,7 +12210,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>262</v>
       </c>
@@ -12276,7 +12278,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>265</v>
       </c>
@@ -12344,7 +12346,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>268</v>
       </c>
@@ -12412,7 +12414,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>271</v>
       </c>
@@ -12480,7 +12482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>274</v>
       </c>
@@ -12548,7 +12550,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>277</v>
       </c>
@@ -12616,7 +12618,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>280</v>
       </c>
@@ -12684,7 +12686,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>283</v>
       </c>
@@ -12752,7 +12754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>286</v>
       </c>
@@ -12820,7 +12822,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>289</v>
       </c>
@@ -12888,7 +12890,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>292</v>
       </c>
@@ -12956,7 +12958,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>295</v>
       </c>
@@ -13024,7 +13026,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>298</v>
       </c>
@@ -13092,7 +13094,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>301</v>
       </c>
@@ -13160,7 +13162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>304</v>
       </c>
@@ -13228,7 +13230,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>307</v>
       </c>
@@ -13296,7 +13298,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>310</v>
       </c>
@@ -13364,7 +13366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>313</v>
       </c>
@@ -13432,7 +13434,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>316</v>
       </c>
@@ -13500,7 +13502,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>319</v>
       </c>
@@ -13568,7 +13570,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>322</v>
       </c>
@@ -13636,7 +13638,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>325</v>
       </c>
@@ -13704,7 +13706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>328</v>
       </c>
@@ -13772,7 +13774,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>331</v>
       </c>
@@ -13840,7 +13842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>334</v>
       </c>
@@ -13908,7 +13910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>337</v>
       </c>
@@ -13976,7 +13978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>340</v>
       </c>
@@ -14044,7 +14046,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>343</v>
       </c>
@@ -14112,7 +14114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>346</v>
       </c>
@@ -14180,7 +14182,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>349</v>
       </c>
@@ -14248,7 +14250,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>352</v>
       </c>
@@ -14316,7 +14318,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>355</v>
       </c>
@@ -14384,7 +14386,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>358</v>
       </c>
@@ -14452,7 +14454,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>361</v>
       </c>
@@ -14520,7 +14522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>364</v>
       </c>
@@ -14588,7 +14590,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>367</v>
       </c>
@@ -14656,7 +14658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>370</v>
       </c>
@@ -14724,7 +14726,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>373</v>
       </c>
@@ -14792,7 +14794,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>376</v>
       </c>
@@ -14860,7 +14862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>379</v>
       </c>
@@ -14928,7 +14930,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>382</v>
       </c>
@@ -14996,7 +14998,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>385</v>
       </c>
@@ -15064,7 +15066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>388</v>
       </c>
@@ -15132,7 +15134,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>391</v>
       </c>
@@ -15200,7 +15202,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>394</v>
       </c>
@@ -15268,7 +15270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>397</v>
       </c>
@@ -15336,7 +15338,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>400</v>
       </c>
@@ -15404,7 +15406,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>403</v>
       </c>
@@ -15472,7 +15474,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>406</v>
       </c>
@@ -15540,7 +15542,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>409</v>
       </c>
@@ -15608,7 +15610,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>412</v>
       </c>
@@ -15676,7 +15678,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>415</v>
       </c>
@@ -15744,7 +15746,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>418</v>
       </c>
@@ -15812,7 +15814,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>421</v>
       </c>
@@ -15880,7 +15882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>424</v>
       </c>
@@ -15948,7 +15950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>427</v>
       </c>
@@ -16016,7 +16018,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>430</v>
       </c>
@@ -16084,7 +16086,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>433</v>
       </c>
@@ -16152,7 +16154,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>436</v>
       </c>
@@ -16220,7 +16222,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>439</v>
       </c>
@@ -16288,7 +16290,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>442</v>
       </c>
@@ -16356,7 +16358,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>445</v>
       </c>
@@ -16424,7 +16426,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>448</v>
       </c>
@@ -16492,7 +16494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>451</v>
       </c>
@@ -16560,7 +16562,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>454</v>
       </c>
@@ -16628,7 +16630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>457</v>
       </c>
@@ -16696,7 +16698,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>460</v>
       </c>
@@ -16764,7 +16766,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>463</v>
       </c>
@@ -16832,7 +16834,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>466</v>
       </c>
@@ -16900,7 +16902,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>469</v>
       </c>
@@ -16968,7 +16970,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>472</v>
       </c>
@@ -17036,7 +17038,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>475</v>
       </c>
@@ -17104,7 +17106,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>478</v>
       </c>
@@ -17172,7 +17174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>481</v>
       </c>
@@ -17240,7 +17242,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>484</v>
       </c>
@@ -17308,7 +17310,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>487</v>
       </c>
@@ -17376,7 +17378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>490</v>
       </c>
@@ -17444,7 +17446,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>493</v>
       </c>
@@ -17512,7 +17514,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>496</v>
       </c>
@@ -17580,7 +17582,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>499</v>
       </c>
@@ -17648,7 +17650,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>502</v>
       </c>
@@ -17716,7 +17718,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>505</v>
       </c>
@@ -17784,7 +17786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>508</v>
       </c>
@@ -17852,7 +17854,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>511</v>
       </c>
@@ -17920,7 +17922,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>514</v>
       </c>
@@ -17988,7 +17990,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>517</v>
       </c>
@@ -18056,7 +18058,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>520</v>
       </c>
@@ -18124,7 +18126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>523</v>
       </c>
@@ -18192,7 +18194,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>526</v>
       </c>
@@ -18260,7 +18262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>529</v>
       </c>
@@ -18328,7 +18330,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>532</v>
       </c>
@@ -18396,7 +18398,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>535</v>
       </c>
@@ -18464,7 +18466,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>538</v>
       </c>
@@ -18532,7 +18534,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>541</v>
       </c>
@@ -18600,7 +18602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>544</v>
       </c>
@@ -18668,7 +18670,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>547</v>
       </c>
@@ -18736,7 +18738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>550</v>
       </c>
@@ -18804,7 +18806,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>553</v>
       </c>
@@ -18872,7 +18874,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>556</v>
       </c>
@@ -18940,7 +18942,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>559</v>
       </c>
@@ -19008,7 +19010,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>562</v>
       </c>
@@ -19076,7 +19078,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>565</v>
       </c>
@@ -19144,7 +19146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>568</v>
       </c>
@@ -19212,7 +19214,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>571</v>
       </c>
@@ -19280,7 +19282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>574</v>
       </c>
@@ -19348,7 +19350,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>577</v>
       </c>
@@ -19416,7 +19418,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>580</v>
       </c>
@@ -19484,7 +19486,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>583</v>
       </c>
@@ -19552,7 +19554,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>586</v>
       </c>
@@ -19620,7 +19622,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>589</v>
       </c>
@@ -19688,7 +19690,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>592</v>
       </c>
@@ -19756,7 +19758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>595</v>
       </c>
@@ -19824,7 +19826,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>598</v>
       </c>
@@ -19892,7 +19894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>601</v>
       </c>
@@ -19960,7 +19962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>604</v>
       </c>
@@ -20028,7 +20030,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>607</v>
       </c>
@@ -20096,7 +20098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>610</v>
       </c>
@@ -20164,7 +20166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>613</v>
       </c>
@@ -20232,7 +20234,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>616</v>
       </c>
@@ -20300,7 +20302,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>619</v>
       </c>
@@ -20368,7 +20370,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>622</v>
       </c>
@@ -20436,7 +20438,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>625</v>
       </c>
@@ -20504,7 +20506,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>628</v>
       </c>
@@ -20572,7 +20574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>631</v>
       </c>
@@ -20640,7 +20642,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>634</v>
       </c>
@@ -20708,7 +20710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>637</v>
       </c>
@@ -20776,7 +20778,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>640</v>
       </c>
@@ -20844,7 +20846,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>643</v>
       </c>
@@ -20912,7 +20914,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>646</v>
       </c>
@@ -20980,7 +20982,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>649</v>
       </c>
@@ -21048,7 +21050,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>652</v>
       </c>
@@ -21116,7 +21118,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>655</v>
       </c>
@@ -21184,7 +21186,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>658</v>
       </c>
@@ -21252,7 +21254,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>661</v>
       </c>
@@ -21320,7 +21322,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>664</v>
       </c>
@@ -21388,7 +21390,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>667</v>
       </c>
@@ -21456,7 +21458,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>670</v>
       </c>
@@ -21524,7 +21526,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>673</v>
       </c>
@@ -21592,7 +21594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>676</v>
       </c>
@@ -21660,7 +21662,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>679</v>
       </c>
@@ -21728,7 +21730,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>682</v>
       </c>
@@ -21796,7 +21798,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>685</v>
       </c>
@@ -21864,7 +21866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>688</v>
       </c>
@@ -21932,7 +21934,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>691</v>
       </c>
@@ -22000,7 +22002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>694</v>
       </c>
@@ -22068,7 +22070,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>697</v>
       </c>
@@ -22136,7 +22138,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>700</v>
       </c>
@@ -22204,7 +22206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>703</v>
       </c>
@@ -22272,7 +22274,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>706</v>
       </c>
@@ -22340,7 +22342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>709</v>
       </c>
@@ -22408,7 +22410,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>712</v>
       </c>
@@ -22476,7 +22478,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>715</v>
       </c>
@@ -22544,7 +22546,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>718</v>
       </c>
@@ -22612,7 +22614,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>721</v>
       </c>
@@ -22680,7 +22682,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>724</v>
       </c>
@@ -22748,7 +22750,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>727</v>
       </c>
@@ -22816,7 +22818,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>730</v>
       </c>
@@ -22884,7 +22886,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>733</v>
       </c>
@@ -22952,7 +22954,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>736</v>
       </c>
@@ -23020,7 +23022,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>739</v>
       </c>
@@ -23088,7 +23090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>742</v>
       </c>
@@ -23156,7 +23158,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>745</v>
       </c>
@@ -23224,7 +23226,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>748</v>
       </c>
@@ -23292,7 +23294,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>751</v>
       </c>
@@ -23360,7 +23362,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>754</v>
       </c>
@@ -23428,7 +23430,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>757</v>
       </c>
@@ -23496,7 +23498,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>760</v>
       </c>
@@ -23564,7 +23566,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>763</v>
       </c>
@@ -23632,7 +23634,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>766</v>
       </c>
@@ -23700,7 +23702,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>769</v>
       </c>
@@ -23768,7 +23770,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>772</v>
       </c>
@@ -23836,7 +23838,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>775</v>
       </c>
@@ -23904,7 +23906,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>778</v>
       </c>
@@ -23972,7 +23974,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>781</v>
       </c>
@@ -24040,7 +24042,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>784</v>
       </c>
@@ -24108,7 +24110,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>787</v>
       </c>
@@ -24176,7 +24178,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>790</v>
       </c>
@@ -24244,7 +24246,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>793</v>
       </c>
@@ -24312,7 +24314,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>796</v>
       </c>
@@ -24380,7 +24382,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>799</v>
       </c>
@@ -24448,7 +24450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>802</v>
       </c>
@@ -24516,7 +24518,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>805</v>
       </c>
@@ -24584,7 +24586,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>808</v>
       </c>
@@ -24652,7 +24654,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>811</v>
       </c>
@@ -24720,7 +24722,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>814</v>
       </c>
@@ -24788,7 +24790,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>817</v>
       </c>
@@ -24856,7 +24858,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>820</v>
       </c>
@@ -24924,7 +24926,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>823</v>
       </c>
@@ -24992,7 +24994,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>826</v>
       </c>
@@ -25060,7 +25062,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>829</v>
       </c>
@@ -25128,7 +25130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>832</v>
       </c>
@@ -25196,7 +25198,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>835</v>
       </c>
@@ -25264,7 +25266,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>838</v>
       </c>
@@ -25332,7 +25334,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>841</v>
       </c>
@@ -25400,7 +25402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>844</v>
       </c>
@@ -25468,7 +25470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>847</v>
       </c>
@@ -25536,7 +25538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>850</v>
       </c>
@@ -25604,7 +25606,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>853</v>
       </c>
@@ -25672,7 +25674,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>856</v>
       </c>
@@ -25740,7 +25742,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>859</v>
       </c>
@@ -25808,7 +25810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>862</v>
       </c>
@@ -25876,7 +25878,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>865</v>
       </c>
@@ -25944,7 +25946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>868</v>
       </c>
@@ -26012,7 +26014,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>871</v>
       </c>
@@ -26080,7 +26082,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>874</v>
       </c>
@@ -26148,7 +26150,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>877</v>
       </c>
@@ -26216,7 +26218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>880</v>
       </c>
@@ -26284,7 +26286,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>883</v>
       </c>
@@ -26352,7 +26354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>886</v>
       </c>
@@ -26420,7 +26422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>889</v>
       </c>
@@ -26488,7 +26490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>892</v>
       </c>
@@ -26556,7 +26558,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>895</v>
       </c>
@@ -26624,7 +26626,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>898</v>
       </c>
@@ -26692,7 +26694,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>901</v>
       </c>
@@ -26760,7 +26762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>904</v>
       </c>
@@ -26828,7 +26830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>907</v>
       </c>
@@ -26896,7 +26898,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>910</v>
       </c>
@@ -26964,7 +26966,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>913</v>
       </c>
@@ -27032,7 +27034,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>916</v>
       </c>
@@ -27100,7 +27102,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>919</v>
       </c>
@@ -27168,7 +27170,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>922</v>
       </c>
@@ -27236,7 +27238,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>925</v>
       </c>
@@ -27304,7 +27306,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>928</v>
       </c>
@@ -27372,7 +27374,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>931</v>
       </c>
@@ -27440,7 +27442,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>934</v>
       </c>
@@ -27508,7 +27510,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>937</v>
       </c>
@@ -27576,7 +27578,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>940</v>
       </c>
@@ -27644,7 +27646,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>943</v>
       </c>
@@ -27712,7 +27714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>946</v>
       </c>
@@ -27780,7 +27782,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>949</v>
       </c>
@@ -27848,7 +27850,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>952</v>
       </c>
@@ -27916,7 +27918,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>955</v>
       </c>
@@ -27984,7 +27986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>958</v>
       </c>
@@ -28052,7 +28054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>961</v>
       </c>
@@ -28120,7 +28122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>964</v>
       </c>
@@ -28188,7 +28190,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>967</v>
       </c>
@@ -28256,7 +28258,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>970</v>
       </c>
@@ -28324,7 +28326,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>973</v>
       </c>
@@ -28392,7 +28394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>976</v>
       </c>
@@ -28460,7 +28462,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>979</v>
       </c>
@@ -28528,7 +28530,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>982</v>
       </c>
@@ -28596,7 +28598,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>985</v>
       </c>
@@ -28664,7 +28666,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>988</v>
       </c>
@@ -28732,7 +28734,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>991</v>
       </c>
@@ -28800,7 +28802,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>994</v>
       </c>
@@ -28868,7 +28870,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>997</v>
       </c>
@@ -28936,7 +28938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1000</v>
       </c>
@@ -29004,7 +29006,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1003</v>
       </c>
@@ -29072,7 +29074,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1006</v>
       </c>
@@ -29140,7 +29142,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1009</v>
       </c>
@@ -29208,7 +29210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1012</v>
       </c>
@@ -29276,7 +29278,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1015</v>
       </c>
@@ -29344,7 +29346,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1018</v>
       </c>
@@ -29412,7 +29414,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1021</v>
       </c>
@@ -29480,7 +29482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1024</v>
       </c>
@@ -29548,7 +29550,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1027</v>
       </c>
@@ -29616,7 +29618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1030</v>
       </c>
@@ -29684,7 +29686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1033</v>
       </c>
@@ -29752,7 +29754,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1036</v>
       </c>
@@ -29820,7 +29822,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1039</v>
       </c>
@@ -29888,7 +29890,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1042</v>
       </c>
@@ -29956,7 +29958,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1045</v>
       </c>
@@ -30024,7 +30026,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1048</v>
       </c>
@@ -30092,7 +30094,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1051</v>
       </c>
@@ -30160,7 +30162,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1054</v>
       </c>
@@ -30228,7 +30230,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1057</v>
       </c>
@@ -30296,7 +30298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1060</v>
       </c>
@@ -30364,7 +30366,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1063</v>
       </c>
@@ -30432,7 +30434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1066</v>
       </c>
@@ -30500,7 +30502,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1069</v>
       </c>
@@ -30568,7 +30570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1072</v>
       </c>
@@ -30636,7 +30638,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1075</v>
       </c>
@@ -30704,7 +30706,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="353" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1078</v>
       </c>
@@ -30772,7 +30774,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="354" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1081</v>
       </c>
@@ -30840,7 +30842,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="355" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1084</v>
       </c>
@@ -30908,7 +30910,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1087</v>
       </c>
@@ -30976,7 +30978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="357" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1090</v>
       </c>
@@ -31044,7 +31046,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1093</v>
       </c>
@@ -31112,7 +31114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="359" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1096</v>
       </c>
@@ -31180,7 +31182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1099</v>
       </c>
@@ -31248,7 +31250,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="361" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1102</v>
       </c>
@@ -31316,7 +31318,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="362" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1105</v>
       </c>
@@ -31384,7 +31386,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1108</v>
       </c>
@@ -31452,7 +31454,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1111</v>
       </c>
@@ -31520,7 +31522,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="365" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1114</v>
       </c>
@@ -31588,7 +31590,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1117</v>
       </c>
@@ -31656,7 +31658,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="367" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1120</v>
       </c>
@@ -31724,7 +31726,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="368" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1123</v>
       </c>
@@ -31792,7 +31794,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1126</v>
       </c>
@@ -31860,7 +31862,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1129</v>
       </c>
@@ -31928,7 +31930,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1132</v>
       </c>
@@ -31996,7 +31998,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1135</v>
       </c>
@@ -32064,7 +32066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1138</v>
       </c>
@@ -32132,7 +32134,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1141</v>
       </c>
@@ -32200,7 +32202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1144</v>
       </c>
@@ -32268,7 +32270,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1147</v>
       </c>
@@ -32336,7 +32338,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1150</v>
       </c>
@@ -32404,7 +32406,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1153</v>
       </c>
@@ -32472,7 +32474,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1156</v>
       </c>
@@ -32540,7 +32542,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1159</v>
       </c>
@@ -32608,7 +32610,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1162</v>
       </c>
@@ -32676,7 +32678,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1165</v>
       </c>
@@ -32744,7 +32746,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1168</v>
       </c>
@@ -32812,7 +32814,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1171</v>
       </c>
@@ -32880,7 +32882,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="385" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1174</v>
       </c>
@@ -32948,7 +32950,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="386" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1177</v>
       </c>
@@ -33016,7 +33018,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="387" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1180</v>
       </c>
@@ -33084,7 +33086,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="388" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1183</v>
       </c>
@@ -33152,7 +33154,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="389" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1186</v>
       </c>
@@ -33220,7 +33222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="390" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1189</v>
       </c>
@@ -33288,7 +33290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="391" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1192</v>
       </c>
@@ -33356,7 +33358,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="392" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1195</v>
       </c>
@@ -33424,7 +33426,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="393" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1198</v>
       </c>
@@ -33492,7 +33494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="394" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1201</v>
       </c>
@@ -33560,7 +33562,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="395" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1204</v>
       </c>
@@ -33628,7 +33630,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="396" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1207</v>
       </c>
@@ -33696,7 +33698,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="397" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1210</v>
       </c>
@@ -33764,7 +33766,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="398" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1213</v>
       </c>
@@ -33832,7 +33834,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="399" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1216</v>
       </c>
@@ -33900,7 +33902,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="400" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1219</v>
       </c>
@@ -33968,7 +33970,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="401" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1222</v>
       </c>
@@ -34036,7 +34038,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="402" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1225</v>
       </c>
@@ -34104,7 +34106,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="403" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1228</v>
       </c>
@@ -34172,7 +34174,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="404" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1231</v>
       </c>
@@ -34240,7 +34242,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="405" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1234</v>
       </c>
@@ -34308,7 +34310,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="406" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1237</v>
       </c>
@@ -34376,7 +34378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="407" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1240</v>
       </c>
@@ -34444,7 +34446,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="408" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1243</v>
       </c>
@@ -34512,7 +34514,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="409" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1246</v>
       </c>
@@ -34580,7 +34582,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="410" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1249</v>
       </c>
@@ -34648,7 +34650,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="411" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1252</v>
       </c>
@@ -34716,7 +34718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="412" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1255</v>
       </c>
@@ -34784,7 +34786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="413" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1258</v>
       </c>
@@ -34852,7 +34854,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="414" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1261</v>
       </c>
@@ -34920,7 +34922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="415" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1264</v>
       </c>
@@ -34988,7 +34990,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="416" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1267</v>
       </c>
@@ -35056,7 +35058,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="417" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1270</v>
       </c>
@@ -35124,7 +35126,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="418" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1273</v>
       </c>
@@ -35192,7 +35194,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="419" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1276</v>
       </c>
@@ -35260,7 +35262,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="420" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1279</v>
       </c>
@@ -35328,7 +35330,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="421" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1282</v>
       </c>
@@ -35396,7 +35398,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="422" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1285</v>
       </c>
@@ -35464,7 +35466,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="423" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1288</v>
       </c>
@@ -35532,7 +35534,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="424" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1291</v>
       </c>
@@ -35600,7 +35602,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="425" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1294</v>
       </c>
@@ -35668,7 +35670,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="426" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1297</v>
       </c>
@@ -35736,7 +35738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="427" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1300</v>
       </c>
@@ -35804,7 +35806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="428" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1303</v>
       </c>
@@ -35872,7 +35874,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="429" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1306</v>
       </c>
@@ -35940,7 +35942,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="430" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1309</v>
       </c>
@@ -36008,7 +36010,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="431" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1312</v>
       </c>
@@ -36076,7 +36078,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="432" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1315</v>
       </c>
@@ -36144,7 +36146,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="433" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1318</v>
       </c>
@@ -36212,7 +36214,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="434" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1321</v>
       </c>
@@ -36280,7 +36282,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="435" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1324</v>
       </c>
@@ -36348,7 +36350,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="436" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1327</v>
       </c>
@@ -36416,7 +36418,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="437" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1330</v>
       </c>
@@ -36484,7 +36486,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="438" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1333</v>
       </c>
@@ -36552,7 +36554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="439" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1336</v>
       </c>
@@ -36620,7 +36622,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="440" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1339</v>
       </c>
@@ -36688,7 +36690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="441" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1342</v>
       </c>
@@ -36756,7 +36758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="442" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1345</v>
       </c>
@@ -36824,7 +36826,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="443" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1348</v>
       </c>
@@ -36892,7 +36894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="444" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1351</v>
       </c>
@@ -36960,7 +36962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="445" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1354</v>
       </c>
@@ -37028,7 +37030,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="446" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1357</v>
       </c>
@@ -37096,7 +37098,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="447" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1360</v>
       </c>
@@ -37164,7 +37166,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="448" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1363</v>
       </c>
@@ -37232,7 +37234,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="449" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1366</v>
       </c>
@@ -37300,7 +37302,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="450" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1369</v>
       </c>
@@ -37368,7 +37370,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="451" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1372</v>
       </c>
@@ -37436,7 +37438,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="452" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1375</v>
       </c>
@@ -37504,7 +37506,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="453" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1378</v>
       </c>
@@ -37572,7 +37574,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="454" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1381</v>
       </c>
@@ -37640,7 +37642,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="455" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1384</v>
       </c>
@@ -37708,7 +37710,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="456" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1387</v>
       </c>
@@ -37776,7 +37778,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="457" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1390</v>
       </c>
@@ -37844,7 +37846,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="458" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1393</v>
       </c>
@@ -37912,7 +37914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="459" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1396</v>
       </c>
@@ -37980,7 +37982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="460" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1399</v>
       </c>
@@ -38048,7 +38050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="461" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1402</v>
       </c>
@@ -38116,7 +38118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="462" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1405</v>
       </c>
@@ -38184,7 +38186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="463" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1408</v>
       </c>
@@ -38252,7 +38254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="464" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1411</v>
       </c>
@@ -38320,7 +38322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="465" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1414</v>
       </c>
@@ -38388,7 +38390,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="466" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1417</v>
       </c>
@@ -38456,7 +38458,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="467" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1420</v>
       </c>
@@ -38524,7 +38526,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="468" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1423</v>
       </c>
@@ -38592,7 +38594,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="469" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1426</v>
       </c>
@@ -38660,7 +38662,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="470" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1429</v>
       </c>
@@ -38728,7 +38730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="471" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1432</v>
       </c>
@@ -38796,7 +38798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="472" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1435</v>
       </c>
@@ -38864,7 +38866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="473" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1438</v>
       </c>
@@ -38932,7 +38934,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="474" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1441</v>
       </c>
@@ -39000,7 +39002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="475" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1444</v>
       </c>
@@ -39068,7 +39070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="476" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1447</v>
       </c>
@@ -39136,7 +39138,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="477" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1450</v>
       </c>
@@ -39204,7 +39206,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="478" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1453</v>
       </c>
@@ -39272,7 +39274,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="479" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1456</v>
       </c>
@@ -39340,7 +39342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="480" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1459</v>
       </c>
@@ -39408,7 +39410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="481" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1462</v>
       </c>
@@ -39476,7 +39478,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="482" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1465</v>
       </c>
@@ -39544,7 +39546,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="483" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1468</v>
       </c>
@@ -39612,7 +39614,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="484" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1471</v>
       </c>
@@ -39680,7 +39682,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="485" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1474</v>
       </c>
@@ -39748,7 +39750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="486" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1477</v>
       </c>
@@ -39816,7 +39818,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="487" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1480</v>
       </c>
@@ -39884,7 +39886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="488" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1483</v>
       </c>
@@ -39952,7 +39954,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="489" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1486</v>
       </c>
@@ -40020,7 +40022,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="490" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1489</v>
       </c>
@@ -40088,7 +40090,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="491" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1492</v>
       </c>
@@ -40156,7 +40158,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="492" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1495</v>
       </c>
@@ -40224,7 +40226,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="493" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1498</v>
       </c>
@@ -40292,7 +40294,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="494" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1501</v>
       </c>
@@ -40360,7 +40362,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="495" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1504</v>
       </c>
@@ -40428,7 +40430,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="496" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1507</v>
       </c>
@@ -40496,7 +40498,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="497" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1510</v>
       </c>
@@ -40564,7 +40566,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="498" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1513</v>
       </c>
@@ -40632,7 +40634,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="499" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1516</v>
       </c>
@@ -40700,7 +40702,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="500" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1519</v>
       </c>
@@ -40768,7 +40770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="501" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1522</v>
       </c>
@@ -40836,7 +40838,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="502" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1525</v>
       </c>
@@ -40904,7 +40906,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="503" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1528</v>
       </c>
@@ -40972,7 +40974,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="504" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1531</v>
       </c>
@@ -41040,7 +41042,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="505" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1534</v>
       </c>
@@ -41108,7 +41110,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="506" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1537</v>
       </c>
@@ -41176,7 +41178,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="507" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1540</v>
       </c>
@@ -41244,7 +41246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="508" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1543</v>
       </c>
@@ -41312,7 +41314,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="509" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1546</v>
       </c>
@@ -41380,7 +41382,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="510" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1549</v>
       </c>
@@ -41448,7 +41450,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="511" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1552</v>
       </c>
@@ -41516,7 +41518,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="512" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1555</v>
       </c>
@@ -41584,7 +41586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="513" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1558</v>
       </c>
@@ -41652,7 +41654,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="514" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1561</v>
       </c>
@@ -41720,7 +41722,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="515" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1564</v>
       </c>
@@ -41788,7 +41790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="516" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1567</v>
       </c>
@@ -41856,7 +41858,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="517" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1570</v>
       </c>
@@ -41924,7 +41926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="518" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1573</v>
       </c>
@@ -41992,7 +41994,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="519" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1576</v>
       </c>
@@ -42060,7 +42062,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="520" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1579</v>
       </c>
@@ -42128,7 +42130,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="521" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1582</v>
       </c>
@@ -42196,7 +42198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="522" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1585</v>
       </c>
@@ -42264,7 +42266,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="523" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1588</v>
       </c>
@@ -42332,7 +42334,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="524" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1591</v>
       </c>
@@ -42400,7 +42402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="525" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1594</v>
       </c>
@@ -42468,7 +42470,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="526" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1597</v>
       </c>
@@ -42536,7 +42538,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="527" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1600</v>
       </c>
@@ -42604,7 +42606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="528" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1603</v>
       </c>
@@ -42672,7 +42674,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="529" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1606</v>
       </c>
@@ -42740,7 +42742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="530" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1609</v>
       </c>
@@ -42808,7 +42810,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="531" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1612</v>
       </c>
@@ -42876,7 +42878,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="532" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1615</v>
       </c>
@@ -42944,7 +42946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="533" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1618</v>
       </c>
@@ -43012,7 +43014,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="534" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1621</v>
       </c>
@@ -43080,7 +43082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="535" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1624</v>
       </c>
@@ -43148,7 +43150,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="536" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1627</v>
       </c>
@@ -43216,7 +43218,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="537" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1630</v>
       </c>
@@ -43284,7 +43286,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="538" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1633</v>
       </c>
@@ -43352,7 +43354,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="539" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1636</v>
       </c>
@@ -43420,7 +43422,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="540" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1639</v>
       </c>
@@ -43488,7 +43490,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="541" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1642</v>
       </c>
@@ -43556,7 +43558,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="542" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1645</v>
       </c>
@@ -43624,7 +43626,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="543" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1648</v>
       </c>
@@ -43692,7 +43694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="544" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1651</v>
       </c>
@@ -43760,7 +43762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="545" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1654</v>
       </c>
@@ -43828,7 +43830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="546" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1657</v>
       </c>
@@ -43896,7 +43898,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="547" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1660</v>
       </c>
@@ -43964,7 +43966,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="548" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1663</v>
       </c>
@@ -44032,7 +44034,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="549" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1666</v>
       </c>
@@ -44100,7 +44102,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="550" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1669</v>
       </c>
@@ -44168,7 +44170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="551" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1672</v>
       </c>
@@ -44236,7 +44238,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="552" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1675</v>
       </c>
@@ -44304,7 +44306,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="553" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1678</v>
       </c>
@@ -44372,7 +44374,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="554" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1681</v>
       </c>
@@ -44440,7 +44442,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="555" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1684</v>
       </c>
@@ -44508,7 +44510,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="556" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1687</v>
       </c>
@@ -44576,7 +44578,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="557" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1690</v>
       </c>
@@ -44644,7 +44646,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="558" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1693</v>
       </c>
@@ -44712,7 +44714,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="559" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1696</v>
       </c>
@@ -44780,7 +44782,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="560" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1699</v>
       </c>
@@ -44848,7 +44850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="561" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1702</v>
       </c>
@@ -44916,7 +44918,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="562" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1705</v>
       </c>
@@ -44984,7 +44986,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="563" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1708</v>
       </c>
@@ -45052,7 +45054,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="564" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1711</v>
       </c>
@@ -45120,7 +45122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="565" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1714</v>
       </c>
@@ -45188,7 +45190,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="566" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1717</v>
       </c>
@@ -45256,7 +45258,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="567" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1720</v>
       </c>
@@ -45324,7 +45326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="568" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1723</v>
       </c>
@@ -45392,7 +45394,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="569" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1726</v>
       </c>
@@ -45460,7 +45462,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="570" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1729</v>
       </c>
@@ -45528,7 +45530,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="571" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1732</v>
       </c>
@@ -45596,7 +45598,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="572" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1735</v>
       </c>
@@ -45664,7 +45666,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="573" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1738</v>
       </c>
@@ -45732,7 +45734,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="574" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1741</v>
       </c>
@@ -45800,7 +45802,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="575" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1744</v>
       </c>
@@ -45868,7 +45870,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="576" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1747</v>
       </c>
@@ -45936,7 +45938,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="577" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1750</v>
       </c>
@@ -46004,7 +46006,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="578" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1753</v>
       </c>
@@ -46072,7 +46074,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="579" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1756</v>
       </c>
@@ -46140,7 +46142,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="580" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1759</v>
       </c>
@@ -46208,7 +46210,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="581" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1762</v>
       </c>
@@ -46276,7 +46278,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="582" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1765</v>
       </c>
@@ -46344,7 +46346,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="583" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1768</v>
       </c>
@@ -46412,7 +46414,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="584" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1771</v>
       </c>
@@ -46480,7 +46482,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="585" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1774</v>
       </c>
@@ -46548,7 +46550,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="586" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1777</v>
       </c>
@@ -46616,7 +46618,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="587" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1780</v>
       </c>
@@ -46684,7 +46686,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="588" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1783</v>
       </c>
@@ -46752,7 +46754,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="589" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1786</v>
       </c>
@@ -46820,7 +46822,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="590" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1789</v>
       </c>
@@ -46888,7 +46890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="591" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1792</v>
       </c>
@@ -46956,7 +46958,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="592" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1795</v>
       </c>
@@ -47024,7 +47026,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="593" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1798</v>
       </c>
@@ -47092,7 +47094,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="594" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1801</v>
       </c>
@@ -47160,7 +47162,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="595" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1804</v>
       </c>
@@ -47228,7 +47230,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="596" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1807</v>
       </c>
@@ -47296,7 +47298,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="597" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1810</v>
       </c>
@@ -47364,7 +47366,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="598" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1813</v>
       </c>
@@ -47432,7 +47434,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="599" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1816</v>
       </c>
@@ -47500,7 +47502,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="600" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1819</v>
       </c>
@@ -47568,7 +47570,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="601" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1822</v>
       </c>
@@ -47636,7 +47638,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="602" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1825</v>
       </c>
@@ -47704,7 +47706,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="603" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1828</v>
       </c>
@@ -47772,7 +47774,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="604" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1831</v>
       </c>
@@ -47840,7 +47842,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="605" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1834</v>
       </c>
@@ -47908,7 +47910,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="606" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1837</v>
       </c>
@@ -47976,7 +47978,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="607" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1840</v>
       </c>
@@ -48044,7 +48046,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="608" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1843</v>
       </c>
@@ -48112,7 +48114,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="609" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1846</v>
       </c>
@@ -48180,7 +48182,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="610" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1849</v>
       </c>
@@ -48248,7 +48250,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="611" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1852</v>
       </c>
@@ -48316,7 +48318,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="612" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1855</v>
       </c>
@@ -48384,7 +48386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="613" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1858</v>
       </c>
@@ -48452,7 +48454,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="614" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1861</v>
       </c>
@@ -48520,7 +48522,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="615" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1864</v>
       </c>
@@ -48588,7 +48590,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="616" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1867</v>
       </c>
@@ -48656,7 +48658,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="617" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1870</v>
       </c>
@@ -48724,7 +48726,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="618" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1873</v>
       </c>
@@ -48792,7 +48794,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="619" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1876</v>
       </c>
@@ -48860,7 +48862,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="620" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1879</v>
       </c>
@@ -48928,7 +48930,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="621" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1882</v>
       </c>
@@ -48996,7 +48998,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="622" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1885</v>
       </c>
@@ -49064,7 +49066,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="623" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1888</v>
       </c>
@@ -49132,7 +49134,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="624" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1891</v>
       </c>
@@ -49200,7 +49202,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="625" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1894</v>
       </c>
@@ -49268,7 +49270,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="626" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1897</v>
       </c>
@@ -49336,7 +49338,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="627" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1900</v>
       </c>
@@ -49404,7 +49406,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="628" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1903</v>
       </c>
@@ -49472,7 +49474,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="629" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1906</v>
       </c>
@@ -49540,7 +49542,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="630" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1909</v>
       </c>
@@ -49608,7 +49610,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="631" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1912</v>
       </c>
@@ -49676,7 +49678,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="632" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1915</v>
       </c>
@@ -49744,7 +49746,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="633" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1918</v>
       </c>
@@ -49812,7 +49814,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="634" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1921</v>
       </c>
@@ -49880,7 +49882,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="635" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1924</v>
       </c>
@@ -49948,7 +49950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="636" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1927</v>
       </c>
@@ -50016,7 +50018,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="637" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1930</v>
       </c>
@@ -50084,7 +50086,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="638" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1933</v>
       </c>
@@ -50152,7 +50154,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="639" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1936</v>
       </c>
@@ -50220,7 +50222,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="640" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1939</v>
       </c>
@@ -50288,7 +50290,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="641" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1942</v>
       </c>
@@ -50356,7 +50358,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="642" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1945</v>
       </c>
@@ -50424,7 +50426,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="643" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1948</v>
       </c>
@@ -50492,7 +50494,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="644" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1951</v>
       </c>
@@ -50560,7 +50562,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="645" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1954</v>
       </c>
@@ -50628,7 +50630,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="646" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1957</v>
       </c>
@@ -50696,7 +50698,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="647" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1960</v>
       </c>
@@ -50764,7 +50766,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="648" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1963</v>
       </c>
@@ -50832,7 +50834,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="649" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1966</v>
       </c>
@@ -50900,7 +50902,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="650" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1969</v>
       </c>
@@ -50968,7 +50970,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="651" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1972</v>
       </c>
@@ -51036,7 +51038,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="652" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1975</v>
       </c>
@@ -51104,7 +51106,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="653" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1978</v>
       </c>
@@ -51172,7 +51174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="654" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1981</v>
       </c>
@@ -51240,7 +51242,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="655" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1984</v>
       </c>
@@ -51308,7 +51310,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="656" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1987</v>
       </c>
@@ -51376,7 +51378,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="657" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1990</v>
       </c>
@@ -51444,7 +51446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="658" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1993</v>
       </c>
@@ -51512,7 +51514,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="659" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1996</v>
       </c>
@@ -51580,7 +51582,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="660" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1999</v>
       </c>
@@ -51648,7 +51650,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="661" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>2002</v>
       </c>
@@ -51716,7 +51718,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="662" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>2005</v>
       </c>
@@ -51784,7 +51786,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="663" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>2008</v>
       </c>
@@ -51852,7 +51854,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="664" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>2011</v>
       </c>
@@ -51920,7 +51922,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="665" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>2014</v>
       </c>
@@ -51988,7 +51990,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="666" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>2017</v>
       </c>
@@ -52056,7 +52058,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="667" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>2020</v>
       </c>
@@ -52124,7 +52126,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="668" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>2023</v>
       </c>
@@ -52192,7 +52194,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="669" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>2026</v>
       </c>
@@ -52260,7 +52262,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="670" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>2029</v>
       </c>
@@ -52328,7 +52330,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="671" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>2032</v>
       </c>
@@ -52396,7 +52398,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="672" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>2035</v>
       </c>
@@ -52464,7 +52466,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="673" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>2038</v>
       </c>
@@ -52532,7 +52534,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="674" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>2041</v>
       </c>
@@ -52600,7 +52602,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="675" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>2044</v>
       </c>
@@ -52668,7 +52670,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="676" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>2047</v>
       </c>
@@ -52736,7 +52738,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="677" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>2050</v>
       </c>
@@ -52804,7 +52806,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="678" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>2053</v>
       </c>
@@ -52872,7 +52874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="679" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>2056</v>
       </c>
@@ -52940,7 +52942,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="680" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>2059</v>
       </c>
@@ -53008,7 +53010,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="681" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>2062</v>
       </c>
@@ -53076,7 +53078,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="682" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>2065</v>
       </c>
@@ -53144,7 +53146,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="683" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>2068</v>
       </c>
@@ -53212,7 +53214,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="684" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>2071</v>
       </c>
@@ -53280,7 +53282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="685" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>2074</v>
       </c>
@@ -53348,7 +53350,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="686" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>2077</v>
       </c>
@@ -53416,7 +53418,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="687" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>2080</v>
       </c>
@@ -53484,7 +53486,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="688" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>2083</v>
       </c>
@@ -53552,7 +53554,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="689" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>2086</v>
       </c>
@@ -53620,7 +53622,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="690" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>2089</v>
       </c>
@@ -53688,7 +53690,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="691" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>2092</v>
       </c>
@@ -53756,7 +53758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="692" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>2095</v>
       </c>
@@ -53824,7 +53826,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="693" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>2098</v>
       </c>
@@ -53892,7 +53894,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="694" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>2101</v>
       </c>
@@ -53960,7 +53962,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="695" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>2104</v>
       </c>
@@ -54028,7 +54030,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="696" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>2107</v>
       </c>
@@ -54096,7 +54098,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="697" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>2110</v>
       </c>
@@ -54164,7 +54166,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="698" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>2113</v>
       </c>
@@ -54232,7 +54234,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="699" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>2116</v>
       </c>
@@ -54300,7 +54302,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="700" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>2119</v>
       </c>
@@ -54368,7 +54370,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="701" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>2122</v>
       </c>
@@ -54436,7 +54438,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="702" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>2125</v>
       </c>
@@ -54504,7 +54506,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="703" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>2128</v>
       </c>
